--- a/datos almacen Elmer.xlsx
+++ b/datos almacen Elmer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\almacen_ropa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\almacen_ropa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB3FB14-7601-455E-B52A-D5D5467A3672}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B4D954-DD21-4B8F-A5E0-E46A48E479E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="tienda" sheetId="3" r:id="rId3"/>
     <sheet name="usuario" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -943,7 +943,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,6 +994,9 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
+      <c r="F3">
+        <v>1234</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
